--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muska\OneDrive\Desktop\Coding\Data Structures and Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE41A5-797F-4E7A-BBB2-320F32E79DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4B59CF-984F-4368-BDF5-AACC51C1C998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{EC39E800-3A36-482D-B66B-14FFA7B83A1A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>APPROACH</t>
   </si>
@@ -52,6 +52,54 @@
   </si>
   <si>
     <t>initialize start=0, end= arr.size()-1, mid. Compare with mid and update start=mid+1 or end=mid-1 until target is reached.</t>
+  </si>
+  <si>
+    <t>First &amp; Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>make 2 func for firstOcc and lastOcc and apply BS on both with a little simple modification.</t>
+  </si>
+  <si>
+    <t>Peak Index in a Mountain Array</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>inc aur dec do lines hongii, agar inc line pe haii mid, toh s = mid+1; agar dec pe hai toh toh e = mid; return s or e…dono same hi honge end mei</t>
+  </si>
+  <si>
+    <t>ARRAYS</t>
+  </si>
+  <si>
+    <t>BINARY SEARCH</t>
+  </si>
+  <si>
+    <t>Find Max and Min element in an Array</t>
+  </si>
+  <si>
+    <t>Simple Linear Search</t>
+  </si>
+  <si>
+    <t>Linear Search any element in Array</t>
+  </si>
+  <si>
+    <t>Reverse Array</t>
+  </si>
+  <si>
+    <t>init start, end. While (start&lt;=end) swap. Start++, end--</t>
+  </si>
+  <si>
+    <t>Swap Alternate Elements in an Array</t>
+  </si>
+  <si>
+    <t>use for loop instead of while, if size is odd, apply loop only till i&lt;size-1</t>
+  </si>
+  <si>
+    <t>Find Unique Element in an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apply XOR(^) operator in loop</t>
   </si>
 </sst>
 </file>
@@ -131,6 +179,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,17 +482,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFC0672-E6D3-4226-B834-1AAE4262513D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52.6328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="101.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="120.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -455,21 +507,120 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://leetcode.com/problems/binary-search/description/" xr:uid="{D62B9F70-3A0B-462F-BB91-FE234BAB388E}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://leetcode.com/problems/binary-search/description/" xr:uid="{D62B9F70-3A0B-462F-BB91-FE234BAB388E}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{4BA89614-6319-4703-81B9-3EA170596CF8}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{2D490A60-4C74-4E71-AD18-E43037E5F8B3}"/>
+    <hyperlink ref="A11" r:id="rId4" xr:uid="{6D78A234-0E32-4FC3-81BF-5ADDFBBA4573}"/>
+    <hyperlink ref="A12" r:id="rId5" xr:uid="{81A07AD3-95CD-4D9E-A068-924943D87115}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{7C887221-EDB8-4086-A7F0-9F188C479A70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muska\OneDrive\Desktop\Coding\Data Structures and Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/625ba221ef3aac8e/Desktop/Coding/Data Structures and Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4B59CF-984F-4368-BDF5-AACC51C1C998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EAD4B3FD-D83E-4629-BC55-6A563B621FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{222A3F94-073D-4239-9E8F-15AAD913565A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{EC39E800-3A36-482D-B66B-14FFA7B83A1A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>APPROACH</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t xml:space="preserve"> apply XOR(^) operator in loop</t>
+  </si>
+  <si>
+    <t>Fibonacci Number</t>
+  </si>
+  <si>
+    <t>Base Case is n&lt;=1=&gt;return n. else return fib(n-1) + fib(n-2)</t>
+  </si>
+  <si>
+    <t>RECURSION AND BACKTRACKING</t>
+  </si>
+  <si>
+    <t>LINKED LIST</t>
   </si>
 </sst>
 </file>
@@ -179,10 +191,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFC0672-E6D3-4226-B834-1AAE4262513D}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,6 +619,27 @@
         <v>21</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://leetcode.com/problems/binary-search/description/" xr:uid="{D62B9F70-3A0B-462F-BB91-FE234BAB388E}"/>
@@ -619,8 +648,9 @@
     <hyperlink ref="A11" r:id="rId4" xr:uid="{6D78A234-0E32-4FC3-81BF-5ADDFBBA4573}"/>
     <hyperlink ref="A12" r:id="rId5" xr:uid="{81A07AD3-95CD-4D9E-A068-924943D87115}"/>
     <hyperlink ref="A13" r:id="rId6" xr:uid="{7C887221-EDB8-4086-A7F0-9F188C479A70}"/>
+    <hyperlink ref="A22" r:id="rId7" xr:uid="{D3954699-C200-43EA-876E-B782BDA8E092}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/625ba221ef3aac8e/Desktop/Coding/Data Structures and Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EAD4B3FD-D83E-4629-BC55-6A563B621FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{222A3F94-073D-4239-9E8F-15AAD913565A}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{EAD4B3FD-D83E-4629-BC55-6A563B621FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8185BC8F-9064-4E07-BBD0-0DDF0A38679C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{EC39E800-3A36-482D-B66B-14FFA7B83A1A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>APPROACH</t>
   </si>
@@ -112,13 +112,61 @@
   </si>
   <si>
     <t>LINKED LIST</t>
+  </si>
+  <si>
+    <t>BASIC MATHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count number of digits </t>
+  </si>
+  <si>
+    <t>lastDigit = n%10, cnt++; n /= 10;</t>
+  </si>
+  <si>
+    <t>Reverse Number</t>
+  </si>
+  <si>
+    <t>revN = 0; Extraction of digits; int revN = (revN % 10) + lastDigit</t>
+  </si>
+  <si>
+    <t>revN = 0; Extraction of digits; int revN = (revN * 10) + lastDigit</t>
+  </si>
+  <si>
+    <t>Check Palindrome</t>
+  </si>
+  <si>
+    <t>int dup = N; if (revN == dup), return true;</t>
+  </si>
+  <si>
+    <t>Armstrong Numbers</t>
+  </si>
+  <si>
+    <t>dup = N, sum =0; while (n&gt;0) sum += lastdigit cube</t>
+  </si>
+  <si>
+    <t>Print All Divisors</t>
+  </si>
+  <si>
+    <t>Check for Prime</t>
+  </si>
+  <si>
+    <t>count number of factors, if number of factors != 2, not prime</t>
+  </si>
+  <si>
+    <t>for i=0; i&lt;=sqrt n;i++ if n% I == 0, cout &lt;&lt; I and n/I if n/I != i</t>
+  </si>
+  <si>
+    <t>GCD or HCF</t>
+  </si>
+  <si>
+    <t>for i=0; i&lt;= min(n1, n2); i++ if n1%i == 0 and n2 % I ==0, return i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +186,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +227,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -191,6 +251,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFC0672-E6D3-4226-B834-1AAE4262513D}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,7 +567,7 @@
     <col min="3" max="3" width="120.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -514,143 +578,236 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://leetcode.com/problems/binary-search/description/" xr:uid="{D62B9F70-3A0B-462F-BB91-FE234BAB388E}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{4BA89614-6319-4703-81B9-3EA170596CF8}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{2D490A60-4C74-4E71-AD18-E43037E5F8B3}"/>
-    <hyperlink ref="A11" r:id="rId4" xr:uid="{6D78A234-0E32-4FC3-81BF-5ADDFBBA4573}"/>
-    <hyperlink ref="A12" r:id="rId5" xr:uid="{81A07AD3-95CD-4D9E-A068-924943D87115}"/>
-    <hyperlink ref="A13" r:id="rId6" xr:uid="{7C887221-EDB8-4086-A7F0-9F188C479A70}"/>
-    <hyperlink ref="A22" r:id="rId7" xr:uid="{D3954699-C200-43EA-876E-B782BDA8E092}"/>
+    <hyperlink ref="A13" r:id="rId1" display="https://leetcode.com/problems/binary-search/description/" xr:uid="{D62B9F70-3A0B-462F-BB91-FE234BAB388E}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{4BA89614-6319-4703-81B9-3EA170596CF8}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{2D490A60-4C74-4E71-AD18-E43037E5F8B3}"/>
+    <hyperlink ref="A20" r:id="rId4" xr:uid="{6D78A234-0E32-4FC3-81BF-5ADDFBBA4573}"/>
+    <hyperlink ref="A21" r:id="rId5" xr:uid="{81A07AD3-95CD-4D9E-A068-924943D87115}"/>
+    <hyperlink ref="A22" r:id="rId6" xr:uid="{7C887221-EDB8-4086-A7F0-9F188C479A70}"/>
+    <hyperlink ref="A31" r:id="rId7" xr:uid="{D3954699-C200-43EA-876E-B782BDA8E092}"/>
+    <hyperlink ref="A5" r:id="rId8" xr:uid="{46652173-EA13-4B27-9E0F-A98692CDA256}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>